--- a/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5429513833373519</v>
+        <v>0.5512742223560294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9543449984799508</v>
+        <v>0.9505602067943042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7669889294348143</v>
+        <v>0.7748239912177042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.075662434928758</v>
+        <v>1.09373852354133</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9272286834429888</v>
+        <v>0.9129141822410995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.401448213244123</v>
+        <v>1.37562820466494</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.192846793579743</v>
+        <v>1.22128409048127</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.360765289602306</v>
+        <v>1.351069871022705</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7664592705233321</v>
+        <v>0.7690906292464997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.214938515035909</v>
+        <v>1.20822372872146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.022569298703362</v>
+        <v>1.018121353372817</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.261980512957964</v>
+        <v>1.255415001048815</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7778723406484629</v>
+        <v>0.7775497413299384</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.432909946572109</v>
+        <v>1.456351686630641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.004550152586304</v>
+        <v>1.023930496749249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.371085824536634</v>
+        <v>1.398353986490769</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.245180456710324</v>
+        <v>1.251003287141995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.778068387363191</v>
+        <v>1.751227365791695</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.554434651661683</v>
+        <v>1.549483061269441</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.622160627761007</v>
+        <v>1.610213720251916</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.987643693885134</v>
+        <v>0.9674629726275867</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1.529584686692403</v>
+        <v>1.525822542925595</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.242240577052378</v>
+        <v>1.23740007900717</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.456544544352964</v>
+        <v>1.45876690750351</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5414256044562776</v>
+        <v>0.5486195315482109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9560266064910489</v>
+        <v>0.9748138175810191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7759765140088549</v>
+        <v>0.7786745792779892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9110502312293146</v>
+        <v>0.9265047515829915</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.072560998952496</v>
+        <v>1.072855020487143</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.494298252323782</v>
+        <v>1.520030900612162</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.269751076449508</v>
+        <v>1.264575165529966</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.42950762400184</v>
+        <v>1.434148739368519</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.833623849602094</v>
+        <v>0.8349031890135296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.272176042512884</v>
+        <v>1.283164539554637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.051045607859912</v>
+        <v>1.060119701706041</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.205177737325197</v>
+        <v>1.217978221282205</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7431001373540139</v>
+        <v>0.7470489108949341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.298437112602761</v>
+        <v>1.32320244639387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9969684968197198</v>
+        <v>1.009243065573009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.241431881457595</v>
+        <v>1.243108304811261</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.338087720496141</v>
+        <v>1.34717029899075</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.843291599398555</v>
+        <v>1.815702509102643</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.51842558819203</v>
+        <v>1.531540963314183</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.718652344866071</v>
+        <v>1.713146005529581</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.995733004121144</v>
+        <v>1.002035944755313</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.504393677635022</v>
+        <v>1.522004354519687</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.236357761751771</v>
+        <v>1.232226837124255</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.417707554554702</v>
+        <v>1.434610058770894</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>1.174113077970877</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2.008984966862904</v>
+        <v>2.008984966862905</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8069164186656398</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4861261352193459</v>
+        <v>0.4889422274319468</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9608847594523563</v>
+        <v>0.9551128971855183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7412689097619257</v>
+        <v>0.7601379581567533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.320534901369266</v>
+        <v>1.317469902893045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9134037707967727</v>
+        <v>0.9115774603062582</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.464743869408508</v>
+        <v>1.463497916304727</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.046293334764477</v>
+        <v>1.041200055129785</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.808151646074345</v>
+        <v>1.834047794807229</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7322717451238817</v>
+        <v>0.7289092829206677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.26176205897633</v>
+        <v>1.265721662665272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9361231016095707</v>
+        <v>0.9353554890390131</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.639860282946764</v>
+        <v>1.64885556351549</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.692583354052653</v>
+        <v>0.6904108172367581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.270934220764281</v>
+        <v>1.268412579776555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9942915374727784</v>
+        <v>0.9824363053298042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.710318504534333</v>
+        <v>1.709259224321331</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.141213733965121</v>
+        <v>1.145771492605837</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.808230494706188</v>
+        <v>1.809811089961922</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.336663565153608</v>
+        <v>1.321701504576535</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.206898054884729</v>
+        <v>2.198793769954163</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.888608660444957</v>
+        <v>0.8814511650261455</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.495291040392555</v>
+        <v>1.485112478262942</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.128374284506754</v>
+        <v>1.120432253839826</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.907460180067367</v>
+        <v>1.908341596478911</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>1.176150919551091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.30980165240406</v>
+        <v>1.309801652404059</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>1.105022349330179</v>
@@ -1089,7 +1089,7 @@
         <v>1.819381367074666</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>1.754938741140827</v>
+        <v>1.754938741140828</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8823892548531338</v>
@@ -1101,7 +1101,7 @@
         <v>1.505121807878424</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.546034963147908</v>
+        <v>1.546034963147907</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5555225968964124</v>
+        <v>0.5666152471423908</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8189973711307139</v>
+        <v>0.8391086522690544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.037073784386927</v>
+        <v>1.050423620286955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.119819758008203</v>
+        <v>1.121101425020073</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9909083583095694</v>
+        <v>0.9761011150158283</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.721129401472197</v>
+        <v>1.729288313323489</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.633385751611472</v>
+        <v>1.624741560614</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.594536699631593</v>
+        <v>1.603226942301496</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8048935472106669</v>
+        <v>0.803752254812329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.32225423201399</v>
+        <v>1.327241829103037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.38510835794729</v>
+        <v>1.397029465535205</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.420549602206231</v>
+        <v>1.403294808104465</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7527515278680295</v>
+        <v>0.7621688103114282</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.128878278507433</v>
+        <v>1.134396563609072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.330152943252644</v>
+        <v>1.323652663694022</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.580658570065749</v>
+        <v>1.550815373567999</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.238964589325393</v>
+        <v>1.238697670691348</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.134070052688434</v>
+        <v>2.155715102237995</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.014084896741987</v>
+        <v>2.017775565300751</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.915581316910169</v>
+        <v>1.928761629755169</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9663669068623694</v>
+        <v>0.9646113594172205</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.593663118967074</v>
+        <v>1.602535223233977</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.634313355415013</v>
+        <v>1.638246276355135</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.667554113320883</v>
+        <v>1.686603125257923</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.610879875940342</v>
+        <v>0.5990459687883823</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9704063193722839</v>
+        <v>0.9696442600646042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6520090016897315</v>
+        <v>0.650987001252104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.922075603996246</v>
+        <v>0.9273929375741753</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.146174573265759</v>
+        <v>1.139153916207045</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.132545246914303</v>
+        <v>2.094462359478465</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.322152618412988</v>
+        <v>1.329358985650263</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.707637017500522</v>
+        <v>1.700634582361742</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9251909053385828</v>
+        <v>0.9258315824196436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.602332428826645</v>
+        <v>1.624146006643441</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.044860775321834</v>
+        <v>1.0441087359657</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.390824616657659</v>
+        <v>1.374141795011811</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8830417645640007</v>
+        <v>0.8850765528853324</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.44355792539054</v>
+        <v>1.43637500764334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.965194983556108</v>
+        <v>0.9982621182084828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.287391292943904</v>
+        <v>1.294504446053537</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.599007477451024</v>
+        <v>1.573778536557545</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.772595039670446</v>
+        <v>2.735183654957777</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.783645920656334</v>
+        <v>1.7842892139007</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.130759069549109</v>
+        <v>2.124136238759099</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.190828606782653</v>
+        <v>1.18612821777473</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.011740145831</v>
+        <v>2.033281194416265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.329103749767653</v>
+        <v>1.329312817646425</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.666396474237968</v>
+        <v>1.665524694392901</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.366627156734119</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.051495498948714</v>
+        <v>2.051495498948713</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9113708602482906</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5542720304414691</v>
+        <v>0.5580598910890578</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.02774561126426</v>
+        <v>1.028087262393517</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7308121978289585</v>
+        <v>0.7285447386084088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.483434138349152</v>
+        <v>1.495837254114041</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.00387252400027</v>
+        <v>1.002382850645702</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.518461341357876</v>
+        <v>1.519417323051473</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.16855066044394</v>
+        <v>1.173417238668933</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.84166564532052</v>
+        <v>1.848747055400392</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8141271085344279</v>
+        <v>0.8173891149543518</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.315934124347407</v>
+        <v>1.31845690607169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.00617170469698</v>
+        <v>1.000767161732763</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.736413907754963</v>
+        <v>1.714806251864258</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7943565985038096</v>
+        <v>0.7968717788303172</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.341618304121777</v>
+        <v>1.365464642626025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.044902942760365</v>
+        <v>1.040937151393863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.961831828309697</v>
+        <v>1.965151374463374</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>1.326588878046706</v>
+        <v>1.322773754507627</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.876021506282359</v>
+        <v>1.849698554021973</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.586862731205316</v>
+        <v>1.596670861047462</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.270143425940523</v>
+        <v>2.275968135941056</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.019550940867176</v>
+        <v>1.010711707999729</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.561781657495903</v>
+        <v>1.550373038987019</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.268377894025593</v>
+        <v>1.268589402100299</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.037438740727463</v>
+        <v>2.044331135889975</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6474320054436121</v>
+        <v>0.6561677113485849</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8871335522654538</v>
+        <v>0.889001474892349</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7896004131418628</v>
+        <v>0.7871023899447415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.209481546060936</v>
+        <v>1.202589441544572</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9882632472998838</v>
+        <v>0.9773024141390378</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.380078393451081</v>
+        <v>1.367447075195046</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.095737823164001</v>
+        <v>1.098523432905636</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.801247073517648</v>
+        <v>1.808911017300874</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8517535438752128</v>
+        <v>0.8417974091914233</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.168788278556288</v>
+        <v>1.166916085459573</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9706011222550582</v>
+        <v>0.973790898258396</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.547114001552305</v>
+        <v>1.541592987918588</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8785076810980955</v>
+        <v>0.8645894092149427</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.108538398718027</v>
+        <v>1.108420625271507</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.019962293559969</v>
+        <v>1.006020581932528</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.462237685433952</v>
+        <v>1.465162898932811</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.212701873746196</v>
+        <v>1.218703303500628</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.62870209600983</v>
+        <v>1.617453583159848</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.342542551647635</v>
+        <v>1.335846144753091</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.109569579412887</v>
+        <v>2.107874836538953</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.00623729389893</v>
+        <v>1.006295491381406</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.332597788729001</v>
+        <v>1.342357046644627</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.139744071742137</v>
+        <v>1.136071706982413</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1.755295105065404</v>
+        <v>1.732910914792647</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7781841377289654</v>
+        <v>0.7763451101069758</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7121928912270563</v>
+        <v>0.7112772479582327</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.833754758236245</v>
+        <v>0.8244078693096016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8454342109826225</v>
+        <v>0.8339591810575089</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.075553317432027</v>
+        <v>1.081494605373233</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.239666872327065</v>
+        <v>1.238385667846072</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.301555751966827</v>
+        <v>1.317321438040718</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.374180582289866</v>
+        <v>1.376211946689969</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9627912113292427</v>
+        <v>0.9601238026919541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.007223253413239</v>
+        <v>1.010364026343042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.115242663427657</v>
+        <v>1.107265590393274</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.141338688188931</v>
+        <v>1.143207125539083</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9872689286736914</v>
+        <v>0.9815272536225708</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9132767763968438</v>
+        <v>0.9178368416793004</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.014378471131478</v>
+        <v>1.013345433618863</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.070674941634559</v>
+        <v>1.05639489363509</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1.295887781455537</v>
+        <v>1.305619259613552</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1.513543348526983</v>
+        <v>1.499571200431216</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.564661468393253</v>
+        <v>1.570255751168366</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>1.625754519395628</v>
+        <v>1.62724597134921</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>1.107713707902768</v>
+        <v>1.107390480183438</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.178369460911566</v>
+        <v>1.178005229654103</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.263427561437357</v>
+        <v>1.266492971759507</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>1.315071505822749</v>
+        <v>1.31272431442007</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6802186333896015</v>
+        <v>0.6790810843551452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9613855059404943</v>
+        <v>0.9632605335231373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8747643028366959</v>
+        <v>0.8739576611198837</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.168440677085846</v>
+        <v>1.164450755438751</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.088526695096107</v>
+        <v>1.094416956265885</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.567716903606793</v>
+        <v>1.564093725970983</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.339288879610574</v>
+        <v>1.339297970881982</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.678781593325099</v>
+        <v>1.680303485045988</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9005833158051764</v>
+        <v>0.9001271337604488</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1.285458762476678</v>
+        <v>1.285090277233669</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1.121790671640509</v>
+        <v>1.127186657079114</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>1.449373407671059</v>
+        <v>1.442425329104705</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7594834561388329</v>
+        <v>0.7581598268014363</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.073778055211194</v>
+        <v>1.072333760844034</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9645317900660269</v>
+        <v>0.9596800545061966</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.281092943595263</v>
+        <v>1.282133335534704</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.185510617866816</v>
+        <v>1.19234308509979</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.689042535172228</v>
+        <v>1.695177966356193</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.45506060446568</v>
+        <v>1.453565773024505</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.795795122018358</v>
+        <v>1.799327488979562</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9659232294113056</v>
+        <v>0.9640773568191172</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1.366833088633991</v>
+        <v>1.364548777390188</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1.196624232916998</v>
+        <v>1.199876313312217</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>1.527312356851608</v>
+        <v>1.527763254733489</v>
       </c>
     </row>
     <row r="31">
